--- a/M&E/baseline_form.xlsx
+++ b/M&E/baseline_form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\M&amp;E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\M&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B12CC2-2F92-469D-A825-07C3B8A2E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AB879F-9956-4B2F-A84C-78687B1229E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -578,9 +578,6 @@
     <t>searchtext</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>enum_name_id</t>
   </si>
   <si>
@@ -1200,6 +1197,9 @@
   </si>
   <si>
     <t>"CLCR Lot 1 Avante"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
   </si>
 </sst>
 </file>
@@ -2605,11 +2605,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2685,7 +2685,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="105" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C6" s="64"/>
       <c r="N6" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
@@ -2737,10 +2737,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N7" s="106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="C8" s="64"/>
       <c r="N8" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O8" s="62"/>
     </row>
@@ -2780,7 +2780,7 @@
       <c r="C10" s="63"/>
       <c r="N10" s="62"/>
       <c r="O10" s="106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2809,7 +2809,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -2820,7 +2820,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>179</v>
+        <v>384</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>20</v>
@@ -2833,19 +2833,19 @@
     </row>
     <row r="15" spans="1:17" s="97" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="107" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="107" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>308</v>
-      </c>
       <c r="F15" s="107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>20</v>
@@ -2860,14 +2860,14 @@
         <v>50</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="97"/>
     </row>
@@ -2882,7 +2882,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>20</v>
@@ -2899,7 +2899,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>20</v>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="19" spans="1:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19" s="98" t="s">
         <v>125</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D19" s="97" t="s">
         <v>126</v>
@@ -2933,16 +2933,16 @@
     </row>
     <row r="20" spans="1:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C20" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="97" t="s">
         <v>284</v>
-      </c>
-      <c r="D20" s="97" t="s">
-        <v>285</v>
       </c>
       <c r="J20" s="97" t="s">
         <v>20</v>
@@ -2953,19 +2953,19 @@
     </row>
     <row r="21" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="C21" s="71" t="s">
         <v>187</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>188</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>126</v>
       </c>
       <c r="G21" s="97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>20</v>
@@ -2979,20 +2979,20 @@
     </row>
     <row r="22" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" s="73" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -3024,7 +3024,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
@@ -3032,22 +3032,22 @@
         <v>50</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F24" s="100"/>
       <c r="N24" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="97"/>
       <c r="F25" s="97"/>
@@ -3065,10 +3065,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L26" s="97" t="s">
         <v>56</v>
@@ -3076,13 +3076,13 @@
     </row>
     <row r="27" spans="1:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="97" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="C27" s="97" t="s">
         <v>314</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>315</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="97" t="s">
@@ -3094,13 +3094,13 @@
     </row>
     <row r="28" spans="1:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="97" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" s="98" t="s">
         <v>316</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="C28" s="97" t="s">
         <v>317</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>318</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="97" t="s">
@@ -3112,13 +3112,13 @@
     </row>
     <row r="29" spans="1:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="98" t="s">
         <v>319</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="C29" s="97" t="s">
         <v>320</v>
-      </c>
-      <c r="C29" s="97" t="s">
-        <v>321</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="97" t="s">
@@ -3130,13 +3130,13 @@
     </row>
     <row r="30" spans="1:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B30" s="98" t="s">
         <v>143</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="97" t="s">
@@ -3154,13 +3154,13 @@
     </row>
     <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="C32" s="91" t="s">
         <v>218</v>
-      </c>
-      <c r="C32" s="91" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -3171,12 +3171,12 @@
         <v>85</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D33" s="29"/>
       <c r="F33" s="12"/>
       <c r="G33" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="15"/>
@@ -3191,21 +3191,21 @@
         <v>25</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" s="90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J35" s="43" t="s">
         <v>20</v>
@@ -3216,16 +3216,16 @@
     </row>
     <row r="36" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G36" s="89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J36" s="43" t="s">
         <v>20</v>
@@ -3234,13 +3234,13 @@
     </row>
     <row r="37" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J37" s="43" t="s">
         <v>20</v>
@@ -3251,16 +3251,16 @@
     </row>
     <row r="38" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" s="89" t="s">
         <v>238</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="89" t="s">
-        <v>239</v>
       </c>
       <c r="J38" s="43" t="s">
         <v>20</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="39" spans="1:13" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J39" s="43" t="s">
         <v>20</v>
@@ -3292,7 +3292,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G40" s="31"/>
       <c r="J40" s="31" t="s">
@@ -3302,13 +3302,13 @@
     </row>
     <row r="41" spans="1:13" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J41" s="28" t="s">
         <v>20</v>
@@ -3325,7 +3325,7 @@
         <v>94</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G42" s="31"/>
       <c r="J42" s="31" t="s">
@@ -3335,13 +3335,13 @@
     </row>
     <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G43" s="87"/>
       <c r="J43" s="35" t="s">
@@ -3353,13 +3353,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G44" s="87"/>
       <c r="J44" s="35" t="s">
@@ -3371,13 +3371,13 @@
     </row>
     <row r="45" spans="1:13" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B45" s="45" t="s">
         <v>175</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="44" t="s">
@@ -3389,13 +3389,13 @@
     </row>
     <row r="46" spans="1:13" s="38" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="45" t="s">
         <v>169</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J46" s="38" t="s">
         <v>20</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="47" spans="1:13" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="87" t="s">
         <v>253</v>
-      </c>
-      <c r="B47" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>254</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="87" t="s">
@@ -3424,13 +3424,13 @@
     </row>
     <row r="48" spans="1:13" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B48" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="87" t="s">
         <v>243</v>
-      </c>
-      <c r="C48" s="87" t="s">
-        <v>244</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="87" t="s">
@@ -3439,13 +3439,13 @@
     </row>
     <row r="49" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B49" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="87" t="s">
         <v>245</v>
-      </c>
-      <c r="C49" s="87" t="s">
-        <v>246</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="87" t="s">
@@ -3454,13 +3454,13 @@
     </row>
     <row r="50" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B50" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="87" t="s">
         <v>247</v>
-      </c>
-      <c r="C50" s="87" t="s">
-        <v>248</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="87" t="s">
@@ -3469,13 +3469,13 @@
     </row>
     <row r="51" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B51" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="87" t="s">
         <v>249</v>
-      </c>
-      <c r="C51" s="87" t="s">
-        <v>250</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="87" t="s">
@@ -3484,13 +3484,13 @@
     </row>
     <row r="52" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B52" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="87" t="s">
         <v>255</v>
-      </c>
-      <c r="C52" s="87" t="s">
-        <v>256</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="87" t="s">
@@ -3499,13 +3499,13 @@
     </row>
     <row r="53" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B53" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="97" t="s">
         <v>257</v>
-      </c>
-      <c r="C53" s="97" t="s">
-        <v>258</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="87" t="s">
@@ -3545,11 +3545,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3769,7 +3769,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
         <v>81</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3799,10 +3799,10 @@
         <v>69</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3810,10 +3810,10 @@
         <v>69</v>
       </c>
       <c r="B28" s="108" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3860,7 +3860,7 @@
         <v>100</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3890,10 +3890,10 @@
         <v>88</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3901,10 +3901,10 @@
         <v>88</v>
       </c>
       <c r="B38" s="108" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -3967,10 +3967,10 @@
         <v>95</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -3981,7 +3981,7 @@
         <v>100</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4003,7 +4003,7 @@
         <v>109</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4014,12 +4014,12 @@
         <v>110</v>
       </c>
       <c r="C50" s="101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53" s="54" t="s">
         <v>159</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="54" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54" s="54" t="s">
         <v>161</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="55" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B55" s="54" t="s">
         <v>163</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="56" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B56" s="54" t="s">
         <v>165</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="57" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B57" s="54" t="s">
         <v>167</v>
@@ -4103,10 +4103,10 @@
         <v>170</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -4116,70 +4116,70 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" s="85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" s="47"/>
       <c r="D65" s="84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B66" s="85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C66" s="47"/>
       <c r="D66" s="84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B67" s="54" t="s">
         <v>163</v>
       </c>
       <c r="C67" s="47"/>
       <c r="D67" s="84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" s="85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="47"/>
       <c r="D68" s="84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="85" t="s">
         <v>199</v>
-      </c>
-      <c r="B69" s="85" t="s">
-        <v>200</v>
       </c>
       <c r="C69" s="47"/>
       <c r="D69" s="84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B72" s="94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="47"/>
       <c r="D72" s="47" t="s">
@@ -4188,10 +4188,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B73" s="94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" s="47"/>
       <c r="D73" s="47" t="s">
@@ -4200,7 +4200,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B74" s="54" t="s">
         <v>163</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B75" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C75" s="47"/>
       <c r="D75" s="47" t="s">
@@ -4224,10 +4224,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="94" t="s">
         <v>227</v>
-      </c>
-      <c r="B76" s="94" t="s">
-        <v>228</v>
       </c>
       <c r="C76" s="47"/>
       <c r="D76" s="47" t="s">
@@ -4236,62 +4236,62 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="B79" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="94" t="s">
-        <v>260</v>
-      </c>
       <c r="C79" s="93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B80" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B81" s="94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B82" s="94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B83" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B84" s="94" t="s">
         <v>99</v>
@@ -4302,82 +4302,82 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" s="94" t="s">
         <v>275</v>
-      </c>
-      <c r="B87" s="94" t="s">
-        <v>276</v>
       </c>
       <c r="C87" s="47"/>
       <c r="D87" s="93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B88" s="54" t="s">
         <v>163</v>
       </c>
       <c r="C88" s="47"/>
       <c r="D88" s="93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B89" s="94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C89" s="47"/>
       <c r="D89" s="93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B92" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C92" s="101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B93" s="103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C93" s="101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B94" s="103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C94" s="101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B95" s="103" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C95" s="101" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="101" customFormat="1" x14ac:dyDescent="0.3">
@@ -4385,10 +4385,10 @@
         <v>82</v>
       </c>
       <c r="B98" s="108" t="s">
+        <v>324</v>
+      </c>
+      <c r="C98" s="101" t="s">
         <v>325</v>
-      </c>
-      <c r="C98" s="101" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -4396,10 +4396,10 @@
         <v>82</v>
       </c>
       <c r="B99" s="108" t="s">
+        <v>326</v>
+      </c>
+      <c r="C99" s="101" t="s">
         <v>327</v>
-      </c>
-      <c r="C99" s="101" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -4412,10 +4412,10 @@
         <v>83</v>
       </c>
       <c r="B101" s="108" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="101" t="s">
         <v>329</v>
-      </c>
-      <c r="C101" s="101" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -4423,10 +4423,10 @@
         <v>83</v>
       </c>
       <c r="B102" s="108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C102" s="101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -4434,10 +4434,10 @@
         <v>83</v>
       </c>
       <c r="B103" s="108" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C103" s="101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -4445,10 +4445,10 @@
         <v>83</v>
       </c>
       <c r="B104" s="108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C104" s="101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -4461,10 +4461,10 @@
         <v>84</v>
       </c>
       <c r="B106" s="108" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="101" t="s">
         <v>334</v>
-      </c>
-      <c r="C106" s="101" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -4472,10 +4472,10 @@
         <v>84</v>
       </c>
       <c r="B107" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="101" t="s">
         <v>336</v>
-      </c>
-      <c r="C107" s="101" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -4483,10 +4483,10 @@
         <v>84</v>
       </c>
       <c r="B108" s="108" t="s">
+        <v>337</v>
+      </c>
+      <c r="C108" s="101" t="s">
         <v>338</v>
-      </c>
-      <c r="C108" s="101" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -4494,10 +4494,10 @@
         <v>84</v>
       </c>
       <c r="B109" s="108" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109" s="101" t="s">
         <v>340</v>
-      </c>
-      <c r="C109" s="101" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -4505,136 +4505,136 @@
         <v>84</v>
       </c>
       <c r="B110" s="108" t="s">
+        <v>341</v>
+      </c>
+      <c r="C110" s="101" t="s">
         <v>342</v>
-      </c>
-      <c r="C110" s="101" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="101" t="s">
+        <v>343</v>
+      </c>
+      <c r="B113" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="B113" s="108" t="s">
+      <c r="C113" s="101" t="s">
         <v>345</v>
-      </c>
-      <c r="C113" s="101" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B114" s="108" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="101" t="s">
         <v>347</v>
-      </c>
-      <c r="C114" s="101" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B115" s="108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" s="101" t="s">
         <v>349</v>
-      </c>
-      <c r="C115" s="101" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B116" s="108" t="s">
+        <v>350</v>
+      </c>
+      <c r="C116" s="101" t="s">
         <v>351</v>
-      </c>
-      <c r="C116" s="101" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B117" s="108" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" s="101" t="s">
         <v>353</v>
-      </c>
-      <c r="C117" s="101" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B118" s="108" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" s="101" t="s">
         <v>355</v>
-      </c>
-      <c r="C118" s="101" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B119" s="108" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" s="101" t="s">
         <v>357</v>
-      </c>
-      <c r="C119" s="101" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B120" s="108" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" s="101" t="s">
         <v>359</v>
-      </c>
-      <c r="C120" s="101" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B121" s="108" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" s="101" t="s">
         <v>361</v>
-      </c>
-      <c r="C121" s="101" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B122" s="108" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122" s="101" t="s">
         <v>363</v>
-      </c>
-      <c r="C122" s="101" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B123" s="108" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" s="101" t="s">
         <v>365</v>
-      </c>
-      <c r="C123" s="101" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>20</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>52</v>
@@ -4656,10 +4656,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="B128" s="108" t="s">
         <v>374</v>
-      </c>
-      <c r="B128" s="108" t="s">
-        <v>375</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>107</v>
@@ -4681,7 +4681,7 @@
   <dimension ref="A1:M855"/>
   <sheetViews>
     <sheetView topLeftCell="A835" workbookViewId="0">
-      <selection activeCell="A608" sqref="A608"/>
+      <selection activeCell="B860" sqref="B859:B860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9478,27 +9478,27 @@
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850" s="86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851" s="86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853" s="95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854" s="95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A855" s="95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -9512,7 +9512,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9544,17 +9544,17 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="C2" s="60">
-        <v>202401</v>
+        <v>202402</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
